--- a/TS Jatai Working/Raja Files/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Raja Files/Rule Processing Table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2984" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="1127">
   <si>
     <t>Special Rules Tables for Rajadhiraaja</t>
   </si>
@@ -1306,9 +1306,6 @@
   </si>
   <si>
     <t>kamu Shvit</t>
-  </si>
-  <si>
-    <t>mo Shu</t>
   </si>
   <si>
     <t>pro Shu</t>
@@ -3417,6 +3414,18 @@
   </si>
   <si>
     <t>evav</t>
+  </si>
+  <si>
+    <t>u |u</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>mo ShU</t>
   </si>
 </sst>
 </file>
@@ -3583,7 +3592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3642,6 +3651,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3925,10 +3939,10 @@
   <dimension ref="A3:V298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3970,25 +3984,25 @@
     </row>
     <row r="5" spans="1:17" ht="54" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>234</v>
@@ -4000,7 +4014,7 @@
         <v>236</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>243</v>
@@ -4029,7 +4043,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -4067,7 +4081,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -4105,7 +4119,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -4143,7 +4157,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
@@ -4181,13 +4195,13 @@
         <v>31</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -4219,7 +4233,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
@@ -4257,37 +4271,37 @@
         <v>31</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>633</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>84</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
@@ -4298,7 +4312,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>268</v>
@@ -4339,7 +4353,7 @@
         <v>31</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>21</v>
@@ -4380,7 +4394,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>22</v>
@@ -4421,16 +4435,16 @@
         <v>31</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>30</v>
@@ -4439,10 +4453,10 @@
         <v>29</v>
       </c>
       <c r="I16" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>642</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>643</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>276</v>
@@ -4459,19 +4473,19 @@
     </row>
     <row r="17" spans="1:20" s="17" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>25</v>
@@ -4483,10 +4497,10 @@
         <v>25</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K17" s="36" t="s">
         <v>405</v>
@@ -4501,42 +4515,42 @@
         <v>33</v>
       </c>
       <c r="O17" s="36" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="17" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>405</v>
@@ -4549,14 +4563,14 @@
       </c>
       <c r="N18"/>
       <c r="O18" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
     </row>
     <row r="19" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>31</v>
@@ -4568,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>25</v>
@@ -4577,33 +4591,33 @@
         <v>27</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>24</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>638</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>639</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>25</v>
       </c>
       <c r="N19" s="17"/>
       <c r="O19" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>31</v>
@@ -4612,10 +4626,10 @@
         <v>27</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>25</v>
@@ -4624,16 +4638,16 @@
         <v>27</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I20" s="38" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K20" s="38" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="L20" s="38" t="s">
         <v>380</v>
@@ -4643,41 +4657,41 @@
       </c>
       <c r="N20" s="17"/>
       <c r="O20" s="38" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:20" s="17" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F21" s="32" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J21" s="32" t="s">
         <v>1111</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>1117</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>1111</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>1112</v>
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -4686,34 +4700,34 @@
     </row>
     <row r="22" spans="1:20" s="17" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>383</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I22" s="36" t="s">
         <v>383</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -4722,34 +4736,34 @@
     </row>
     <row r="23" spans="1:20" s="17" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D23" s="32" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>634</v>
+      </c>
+      <c r="F23" s="32" t="s">
         <v>1109</v>
       </c>
-      <c r="E23" s="34" t="s">
-        <v>635</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>1110</v>
-      </c>
       <c r="G23" s="36" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -4758,34 +4772,34 @@
     </row>
     <row r="24" spans="1:20" s="17" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -4794,34 +4808,34 @@
     </row>
     <row r="25" spans="1:20" s="17" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F25" s="36" t="s">
         <v>326</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I25" s="36" t="s">
         <v>326</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
@@ -4829,16 +4843,34 @@
       <c r="O25" s="8"/>
     </row>
     <row r="26" spans="1:20" s="17" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="A26" s="18" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>634</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>656</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>1125</v>
+      </c>
       <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
+      <c r="J26" s="40" t="s">
+        <v>1125</v>
+      </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -4886,7 +4918,7 @@
     </row>
     <row r="30" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>31</v>
@@ -4931,7 +4963,7 @@
     </row>
     <row r="31" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>31</v>
@@ -4946,7 +4978,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>285</v>
@@ -4985,7 +5017,7 @@
     </row>
     <row r="32" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
@@ -4997,7 +5029,7 @@
         <v>33</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>34</v>
@@ -5025,7 +5057,7 @@
     </row>
     <row r="33" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>31</v>
@@ -5070,7 +5102,7 @@
     </row>
     <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>31</v>
@@ -5085,7 +5117,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>37</v>
@@ -5121,7 +5153,7 @@
     </row>
     <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>31</v>
@@ -5136,7 +5168,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>294</v>
@@ -5217,7 +5249,7 @@
         <v>42</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H38" s="30" t="s">
         <v>40</v>
@@ -5272,10 +5304,10 @@
         <v>31</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>11</v>
@@ -5320,10 +5352,10 @@
         <v>31</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>11</v>
@@ -5381,7 +5413,7 @@
         <v>31</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>124</v>
@@ -5701,7 +5733,7 @@
         <v>31</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>132</v>
@@ -5861,10 +5893,10 @@
         <v>31</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>11</v>
@@ -5889,10 +5921,10 @@
         <v>31</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>11</v>
@@ -5921,10 +5953,10 @@
         <v>31</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>11</v>
@@ -5953,10 +5985,10 @@
         <v>31</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
@@ -5993,7 +6025,7 @@
         <v>31</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>135</v>
@@ -6260,7 +6292,7 @@
         <v>42</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>374</v>
@@ -6300,7 +6332,7 @@
         <v>8</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>374</v>
@@ -6308,16 +6340,16 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>374</v>
       </c>
       <c r="M70" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="O70" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -6340,7 +6372,7 @@
         <v>8</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>373</v>
@@ -6380,7 +6412,7 @@
         <v>42</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>388</v>
@@ -6420,7 +6452,7 @@
         <v>8</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>388</v>
@@ -6428,16 +6460,16 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>387</v>
       </c>
       <c r="M73" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="O73" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -6460,7 +6492,7 @@
         <v>8</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>116</v>
@@ -6500,7 +6532,7 @@
         <v>8</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>117</v>
@@ -6540,7 +6572,7 @@
         <v>8</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>118</v>
@@ -6568,10 +6600,10 @@
         <v>115</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>11</v>
@@ -6580,7 +6612,7 @@
         <v>8</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>119</v>
@@ -6615,10 +6647,10 @@
         <v>115</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>11</v>
@@ -6627,13 +6659,13 @@
         <v>42</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>119</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>380</v>
@@ -6642,16 +6674,16 @@
         <v>381</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>119</v>
       </c>
       <c r="P78" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q78" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -6668,7 +6700,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>11</v>
@@ -6696,7 +6728,7 @@
         <v>52</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>412</v>
@@ -6713,7 +6745,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>11</v>
@@ -6740,7 +6772,7 @@
         <v>53</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Q81" s="2" t="s">
         <v>416</v>
@@ -6757,7 +6789,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>11</v>
@@ -6801,7 +6833,7 @@
         <v>2</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>11</v>
@@ -6850,11 +6882,14 @@
       <c r="E84" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>16</v>
+      <c r="F84" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="41" t="s">
+        <v>1124</v>
       </c>
       <c r="H84" s="39" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>60</v>
@@ -6863,13 +6898,13 @@
         <v>402</v>
       </c>
       <c r="L84" s="39" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -6888,8 +6923,11 @@
       <c r="E85" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>16</v>
+      <c r="F85" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="41" t="s">
+        <v>1124</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>60</v>
@@ -6900,11 +6938,11 @@
       <c r="L85" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="O85" s="2" t="s">
-        <v>427</v>
+      <c r="O85" s="41" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -6923,8 +6961,8 @@
       <c r="E86" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>16</v>
+      <c r="F86" s="41" t="s">
+        <v>6</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>60</v>
@@ -6939,7 +6977,7 @@
         <v>6</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -6965,16 +7003,16 @@
         <v>60</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>56</v>
       </c>
       <c r="M87" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="O87" s="2" t="s">
         <v>1095</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -7006,10 +7044,10 @@
         <v>57</v>
       </c>
       <c r="M88" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="O88" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -7044,7 +7082,7 @@
         <v>415</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -7076,10 +7114,10 @@
         <v>59</v>
       </c>
       <c r="M90" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="O90" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -7090,10 +7128,10 @@
         <v>31</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>11</v>
@@ -7108,19 +7146,19 @@
         <v>279</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>383</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -7131,10 +7169,10 @@
         <v>31</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>11</v>
@@ -7149,10 +7187,10 @@
         <v>408</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>334</v>
@@ -7161,12 +7199,12 @@
         <v>123</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2</v>
@@ -7190,22 +7228,22 @@
         <v>44</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>61</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>2</v>
@@ -7229,28 +7267,28 @@
         <v>44</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>62</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>11</v>
@@ -7268,22 +7306,22 @@
         <v>44</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>2</v>
@@ -7307,22 +7345,22 @@
         <v>44</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M96" s="2" t="s">
         <v>326</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2</v>
@@ -7346,7 +7384,7 @@
         <v>44</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>64</v>
@@ -7356,12 +7394,12 @@
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2</v>
@@ -7385,7 +7423,7 @@
         <v>44</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>65</v>
@@ -7395,18 +7433,18 @@
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>11</v>
@@ -7424,30 +7462,30 @@
         <v>44</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>287</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>344</v>
       </c>
       <c r="O99" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="P99" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="P99" s="2" t="s">
+      <c r="Q99" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="Q99" s="2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>2</v>
@@ -7471,7 +7509,7 @@
         <v>44</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>66</v>
@@ -7481,12 +7519,12 @@
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>2</v>
@@ -7510,7 +7548,7 @@
         <v>44</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>67</v>
@@ -7520,12 +7558,12 @@
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>2</v>
@@ -7549,7 +7587,7 @@
         <v>44</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>68</v>
@@ -7558,12 +7596,12 @@
         <v>344</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>2</v>
@@ -7587,7 +7625,7 @@
         <v>44</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L103" s="2" t="s">
         <v>69</v>
@@ -7596,12 +7634,12 @@
         <v>344</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>2</v>
@@ -7625,21 +7663,21 @@
         <v>44</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>70</v>
       </c>
       <c r="M104" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="O104" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="O104" s="2" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>2</v>
@@ -7658,21 +7696,21 @@
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J105" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K105" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="L105" s="15" t="s">
         <v>478</v>
-      </c>
-      <c r="L105" s="15" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>2</v>
@@ -7690,33 +7728,33 @@
         <v>71</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>67</v>
       </c>
       <c r="M106" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="O106" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="O106" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>28</v>
@@ -7728,16 +7766,16 @@
         <v>71</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K107" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="L107" s="15" t="s">
         <v>475</v>
-      </c>
-      <c r="L107" s="15" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -7764,7 +7802,7 @@
         <v>139</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I109" s="2"/>
     </row>
@@ -7783,7 +7821,7 @@
         <v>140</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I110" s="2"/>
     </row>
@@ -7802,7 +7840,7 @@
         <v>141</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I111" s="2"/>
     </row>
@@ -7821,7 +7859,7 @@
         <v>142</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I112" s="2"/>
     </row>
@@ -7840,7 +7878,7 @@
         <v>143</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I113" s="2"/>
     </row>
@@ -7859,20 +7897,20 @@
         <v>144</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I114" s="2"/>
       <c r="K114" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="L114" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="L114" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>144</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -7890,7 +7928,7 @@
         <v>145</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I115" s="2"/>
     </row>
@@ -7909,7 +7947,7 @@
         <v>146</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I116" s="2"/>
     </row>
@@ -7928,7 +7966,7 @@
         <v>147</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I117" s="2"/>
     </row>
@@ -7947,7 +7985,7 @@
         <v>148</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I118" s="2"/>
     </row>
@@ -7966,7 +8004,7 @@
         <v>149</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I119" s="2"/>
     </row>
@@ -7985,7 +8023,7 @@
         <v>299</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I120" s="2"/>
     </row>
@@ -8004,7 +8042,7 @@
         <v>150</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I121" s="2"/>
     </row>
@@ -8019,37 +8057,37 @@
         <v>2</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F122" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="J122" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="H122" s="2" t="s">
+      <c r="K122" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="M122" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="O122" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="L122" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="M122" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="O122" s="2" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -8064,10 +8102,10 @@
         <v>107</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I123" s="2"/>
     </row>
@@ -8083,10 +8121,10 @@
         <v>107</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I124" s="2"/>
     </row>
@@ -8098,26 +8136,26 @@
         <v>115</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G125" s="2"/>
       <c r="I125" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="K125" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="K125" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="L125" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -8128,26 +8166,26 @@
         <v>115</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G126" s="2"/>
       <c r="I126" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -8158,32 +8196,32 @@
         <v>31</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F127" s="15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G127" s="2"/>
       <c r="I127" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K127" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="M127" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="L127" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="M127" s="2" t="s">
+      <c r="O127" s="2" t="s">
         <v>719</v>
-      </c>
-      <c r="O127" s="2" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -8194,32 +8232,32 @@
         <v>31</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F128" s="15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G128" s="2"/>
       <c r="I128" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K128" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="M128" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="L128" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="M128" s="2" t="s">
+      <c r="O128" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="O128" s="2" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="129" spans="1:19" ht="18" x14ac:dyDescent="0.25">
@@ -8230,33 +8268,33 @@
         <v>31</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G129" s="2"/>
       <c r="I129" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K129" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="L129" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="L129" s="2" t="s">
+      <c r="M129" s="2" t="s">
         <v>725</v>
-      </c>
-      <c r="M129" s="2" t="s">
-        <v>726</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="P129" s="2"/>
     </row>
@@ -8268,7 +8306,7 @@
         <v>31</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>84</v>
@@ -8277,24 +8315,24 @@
         <v>11</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G130" s="2"/>
       <c r="I130" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K130" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="L130" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="L130" s="2" t="s">
+      <c r="M130" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="M130" s="2" t="s">
-        <v>730</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="P130" s="2"/>
     </row>
@@ -8306,33 +8344,33 @@
         <v>31</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G131" s="2"/>
       <c r="I131" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K131" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="L131" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="L131" s="2" t="s">
+      <c r="M131" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="M131" s="2" t="s">
-        <v>734</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="P131" s="2"/>
     </row>
@@ -8344,33 +8382,33 @@
         <v>115</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G132" s="8"/>
       <c r="I132" s="2" t="s">
         <v>120</v>
       </c>
       <c r="K132" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="L132" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="L132" s="2" t="s">
+      <c r="M132" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="M132" s="2" t="s">
-        <v>739</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="P132" s="2"/>
     </row>
@@ -8436,7 +8474,7 @@
         <v>2</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>11</v>
@@ -8453,22 +8491,22 @@
         <v>403</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M137" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N137" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="O137" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="P137" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="O137" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="P137" s="2" t="s">
+      <c r="Q137" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="Q137" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="R137" s="2"/>
       <c r="S137" s="2"/>
@@ -8517,7 +8555,7 @@
         <v>2</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>11</v>
@@ -8531,7 +8569,7 @@
         <v>76</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>215</v>
@@ -8540,16 +8578,16 @@
         <v>196</v>
       </c>
       <c r="N139" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="O139" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="O139" s="2" t="s">
+      <c r="P139" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="P139" s="2" t="s">
+      <c r="Q139" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="Q139" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="R139" s="2"/>
       <c r="S139" s="2"/>
@@ -8565,7 +8603,7 @@
         <v>2</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>11</v>
@@ -8579,25 +8617,25 @@
         <v>76</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M140" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="N140" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="O140" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="N140" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="O140" s="2" t="s">
+      <c r="P140" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="P140" s="2" t="s">
+      <c r="Q140" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="Q140" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="R140" s="2"/>
       <c r="S140" s="2"/>
@@ -8627,17 +8665,17 @@
         <v>76</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L141" s="2" t="s">
         <v>78</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
@@ -8669,25 +8707,25 @@
         <v>76</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L142" s="2" t="s">
         <v>79</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N142" s="2" t="s">
         <v>215</v>
       </c>
       <c r="O142" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="P142" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="P142" s="2" t="s">
+      <c r="Q142" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="Q142" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="R142" s="2"/>
       <c r="S142" s="2"/>
@@ -8717,17 +8755,17 @@
         <v>76</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L143" s="2" t="s">
         <v>80</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" s="2"/>
@@ -8745,7 +8783,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>11</v>
@@ -8759,17 +8797,17 @@
         <v>76</v>
       </c>
       <c r="K144" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="L144" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="L144" s="2" t="s">
-        <v>593</v>
-      </c>
       <c r="M144" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
@@ -8801,7 +8839,7 @@
         <v>76</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
@@ -8837,7 +8875,7 @@
         <v>76</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
@@ -8873,17 +8911,17 @@
         <v>76</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>61</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P147" s="2"/>
       <c r="Q147" s="2"/>
@@ -8907,7 +8945,7 @@
         <v>11</v>
       </c>
       <c r="F148" s="37" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
@@ -8940,7 +8978,7 @@
         <v>11</v>
       </c>
       <c r="F149" s="37" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
@@ -8948,17 +8986,17 @@
         <v>76</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L149" s="2" t="s">
         <v>84</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
@@ -8982,7 +9020,7 @@
         <v>11</v>
       </c>
       <c r="F150" s="37" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
@@ -9015,7 +9053,7 @@
         <v>11</v>
       </c>
       <c r="F151" s="37" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
@@ -9023,17 +9061,17 @@
         <v>76</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>86</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P151" s="2"/>
       <c r="Q151" s="2"/>
@@ -9063,7 +9101,7 @@
         <v>91</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L152" s="2" t="s">
         <v>89</v>
@@ -9073,7 +9111,7 @@
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
@@ -9103,7 +9141,7 @@
         <v>92</v>
       </c>
       <c r="J153" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
@@ -9137,7 +9175,7 @@
         <v>96</v>
       </c>
       <c r="J154" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
@@ -9171,7 +9209,7 @@
         <v>96</v>
       </c>
       <c r="J155" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
@@ -9190,10 +9228,10 @@
         <v>31</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E156" t="s">
         <v>2</v>
@@ -9224,10 +9262,10 @@
         <v>31</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E157" t="s">
         <v>2</v>
@@ -9258,10 +9296,10 @@
         <v>31</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E158" t="s">
         <v>2</v>
@@ -9292,10 +9330,10 @@
         <v>31</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E159" t="s">
         <v>2</v>
@@ -9326,10 +9364,10 @@
         <v>31</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E160" t="s">
         <v>2</v>
@@ -9361,10 +9399,10 @@
         <v>31</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E161" t="s">
         <v>2</v>
@@ -9411,7 +9449,7 @@
         <v>154</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L162" s="2" t="s">
         <v>61</v>
@@ -9421,7 +9459,7 @@
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" s="2"/>
@@ -9453,7 +9491,7 @@
         <v>156</v>
       </c>
       <c r="J163" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
@@ -9549,20 +9587,20 @@
         <v>157</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="P168" s="2"/>
       <c r="Q168" s="2"/>
@@ -9580,20 +9618,20 @@
         <v>158</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L169" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="M169" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="M169" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="P169" s="2"/>
       <c r="Q169" s="2"/>
@@ -9611,10 +9649,10 @@
         <v>159</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L170" s="2" t="s">
         <v>86</v>
@@ -9624,7 +9662,7 @@
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
@@ -9642,10 +9680,10 @@
         <v>160</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L171" s="2" t="s">
         <v>86</v>
@@ -9655,7 +9693,7 @@
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
@@ -9673,20 +9711,20 @@
         <v>161</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K172" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="L172" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="L172" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="M172" s="2" t="s">
         <v>161</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
@@ -9701,23 +9739,23 @@
         <v>115</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K173" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="L173" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="M173" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="L173" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="M173" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
@@ -9732,29 +9770,29 @@
         <v>115</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D174" s="15" t="s">
         <v>39</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I174" s="12" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K174" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="L174" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="L174" s="2" t="s">
+      <c r="M174" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="M174" s="2" t="s">
-        <v>710</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P174" s="2"/>
       <c r="Q174" s="2"/>
@@ -9772,7 +9810,7 @@
         <v>11</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>11</v>
@@ -9781,19 +9819,19 @@
         <v>39</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I175" s="12"/>
       <c r="K175" s="2"/>
       <c r="L175" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="M175" s="2" t="s">
         <v>858</v>
-      </c>
-      <c r="M175" s="2" t="s">
-        <v>859</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P175" s="2"/>
       <c r="Q175" s="2"/>
@@ -9854,7 +9892,7 @@
         <v>31</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>49</v>
@@ -9863,26 +9901,26 @@
         <v>11</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="K179" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="L179" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="L179" s="2" t="s">
+      <c r="M179" s="2" t="s">
         <v>813</v>
-      </c>
-      <c r="M179" s="2" t="s">
-        <v>814</v>
       </c>
       <c r="N179" s="6"/>
       <c r="O179" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="P179" s="6"/>
       <c r="Q179" s="6"/>
@@ -9900,36 +9938,36 @@
         <v>50</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J180" s="2"/>
       <c r="K180" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="L180" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="M180" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="M180" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="N180" s="6"/>
       <c r="O180" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="P180" s="6"/>
       <c r="Q180" s="6"/>
@@ -9947,34 +9985,34 @@
         <v>50</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H181" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
       <c r="L181" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N181" s="6"/>
       <c r="O181" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="P181" s="6"/>
       <c r="Q181" s="6"/>
@@ -10007,17 +10045,17 @@
         <v>39</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M182" s="2" t="s">
         <v>162</v>
       </c>
       <c r="N182" s="6"/>
       <c r="O182" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="P182" s="6"/>
       <c r="Q182" s="6"/>
@@ -10038,7 +10076,7 @@
         <v>27</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>2</v>
@@ -10050,17 +10088,17 @@
         <v>39</v>
       </c>
       <c r="K183" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="L183" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="L183" s="2" t="s">
-        <v>827</v>
       </c>
       <c r="M183" s="2" t="s">
         <v>162</v>
       </c>
       <c r="N183" s="6"/>
       <c r="O183" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="P183" s="6"/>
       <c r="Q183" s="6"/>
@@ -10081,7 +10119,7 @@
         <v>27</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>2</v>
@@ -10093,7 +10131,7 @@
         <v>39</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L184" s="2" t="s">
         <v>357</v>
@@ -10103,7 +10141,7 @@
       </c>
       <c r="N184" s="6"/>
       <c r="O184" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="P184" s="6"/>
       <c r="Q184" s="6"/>
@@ -10121,43 +10159,43 @@
         <v>31</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="L185" s="2" t="s">
         <v>33</v>
       </c>
       <c r="M185" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="N185" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="N185" s="2" t="s">
+      <c r="O185" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="O185" s="2" t="s">
+      <c r="P185" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="P185" s="2" t="s">
+      <c r="Q185" s="2" t="s">
         <v>762</v>
-      </c>
-      <c r="Q185" s="2" t="s">
-        <v>763</v>
       </c>
       <c r="R185" s="6"/>
       <c r="S185" s="6"/>
@@ -10173,34 +10211,34 @@
         <v>31</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H186" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="K186" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="L186" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="K186" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="L186" s="2" t="s">
-        <v>692</v>
-      </c>
       <c r="M186" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="O186" s="2" t="s">
         <v>764</v>
-      </c>
-      <c r="O186" s="2" t="s">
-        <v>765</v>
       </c>
       <c r="P186" s="2"/>
       <c r="Q186" s="2"/>
@@ -10218,34 +10256,34 @@
         <v>31</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M187" s="2" t="s">
         <v>287</v>
       </c>
       <c r="O187" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="P187" s="2"/>
       <c r="Q187" s="2"/>
@@ -10263,34 +10301,34 @@
         <v>31</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K188" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="L188" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="M188" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="L188" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="M188" s="2" t="s">
+      <c r="O188" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="O188" s="2" t="s">
-        <v>769</v>
       </c>
       <c r="P188" s="2"/>
       <c r="Q188" s="2"/>
@@ -10308,35 +10346,35 @@
         <v>31</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L189" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P189" s="2"/>
       <c r="Q189" s="2"/>
@@ -10357,32 +10395,32 @@
         <v>107</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K190" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="L190" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="L190" s="2" t="s">
+      <c r="M190" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="M190" s="2" t="s">
-        <v>774</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="P190" s="2"/>
       <c r="Q190" s="2"/>
@@ -10400,35 +10438,35 @@
         <v>31</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L191" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="P191" s="2"/>
       <c r="Q191" s="2"/>
@@ -10446,35 +10484,35 @@
         <v>31</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="L192" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M192" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="P192" s="2"/>
       <c r="Q192" s="2"/>
@@ -10492,35 +10530,35 @@
         <v>31</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J193" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="K193" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="L193" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="M193" s="2" t="s">
         <v>786</v>
-      </c>
-      <c r="K193" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="L193" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="M193" s="2" t="s">
-        <v>787</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P193" s="2"/>
       <c r="Q193" s="2"/>
@@ -10538,35 +10576,35 @@
         <v>31</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K194" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="L194" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="M194" s="2" t="s">
         <v>789</v>
-      </c>
-      <c r="L194" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="M194" s="2" t="s">
-        <v>790</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="P194" s="2"/>
       <c r="Q194" s="2"/>
@@ -10584,35 +10622,35 @@
         <v>31</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L195" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M195" s="2" t="s">
         <v>287</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="P195" s="2"/>
       <c r="Q195" s="2"/>
@@ -10630,35 +10668,35 @@
         <v>31</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L196" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="P196" s="2"/>
       <c r="Q196" s="2"/>
@@ -10679,32 +10717,32 @@
         <v>107</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="L197" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="M197" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="M197" s="2" t="s">
-        <v>799</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P197" s="2"/>
       <c r="Q197" s="2"/>
@@ -10722,35 +10760,35 @@
         <v>31</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L198" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P198" s="2"/>
       <c r="Q198" s="2"/>
@@ -10771,32 +10809,32 @@
         <v>107</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K199" s="2" t="s">
         <v>314</v>
       </c>
       <c r="L199" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="P199" s="2"/>
       <c r="Q199" s="2"/>
@@ -10814,35 +10852,35 @@
         <v>31</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="P200" s="2"/>
       <c r="Q200" s="2"/>
@@ -10860,35 +10898,35 @@
         <v>31</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K201" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P201" s="2"/>
       <c r="Q201" s="2"/>
@@ -10899,13 +10937,13 @@
         <v>46</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>777</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>2</v>
@@ -10917,20 +10955,20 @@
         <v>178</v>
       </c>
       <c r="J202" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="K202" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="K202" s="2" t="s">
-        <v>779</v>
-      </c>
       <c r="L202" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M202" s="2" t="s">
         <v>162</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="P202" s="2"/>
       <c r="Q202" s="2"/>
@@ -10941,13 +10979,13 @@
         <v>46</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>2</v>
@@ -10956,23 +10994,23 @@
         <v>29</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="J203" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="K203" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="K203" s="2" t="s">
-        <v>804</v>
-      </c>
       <c r="L203" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M203" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" s="2"/>
@@ -11001,41 +11039,41 @@
         <v>39</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>178</v>
       </c>
       <c r="H205" s="2"/>
       <c r="I205" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J205" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="J205" s="2" t="s">
+      <c r="K205" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="K205" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="L205" s="2" t="s">
         <v>175</v>
       </c>
       <c r="M205" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="N205" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="O205" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="P205" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="N205" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="O205" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="P205" s="2" t="s">
+      <c r="Q205" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="Q205" s="2" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="206" spans="1:22" ht="18" x14ac:dyDescent="0.25">
@@ -11065,19 +11103,19 @@
         <v>163</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K206" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="L206" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="L206" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="M206" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O206" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="207" spans="1:22" ht="18" x14ac:dyDescent="0.25">
@@ -11104,22 +11142,22 @@
       </c>
       <c r="H207" s="2"/>
       <c r="I207" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="J207" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="K207" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L207" s="2" t="s">
         <v>320</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O207" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="208" spans="1:22" ht="18" x14ac:dyDescent="0.25">
@@ -11149,10 +11187,10 @@
         <v>165</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K208" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L208" s="2" t="s">
         <v>320</v>
@@ -11161,7 +11199,7 @@
         <v>165</v>
       </c>
       <c r="O208" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="209" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -11191,28 +11229,28 @@
         <v>166</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K209" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L209" s="2" t="s">
         <v>320</v>
       </c>
       <c r="M209" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="N209" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="N209" s="2" t="s">
+      <c r="O209" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="O209" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="P209" s="2" t="s">
         <v>166</v>
       </c>
       <c r="Q209" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="210" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -11242,10 +11280,10 @@
         <v>167</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K210" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L210" s="2" t="s">
         <v>320</v>
@@ -11254,7 +11292,7 @@
         <v>167</v>
       </c>
       <c r="O210" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="211" spans="1:17" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -11274,29 +11312,29 @@
         <v>23</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G211" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H211" s="8"/>
       <c r="I211" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J211" s="8" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K211" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L211" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M211" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O211" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="212" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -11326,10 +11364,10 @@
         <v>168</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K212" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L212" s="2" t="s">
         <v>320</v>
@@ -11338,7 +11376,7 @@
         <v>168</v>
       </c>
       <c r="O212" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="213" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -11355,10 +11393,10 @@
         <v>39</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>178</v>
@@ -11368,10 +11406,10 @@
         <v>169</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K213" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L213" s="2" t="s">
         <v>320</v>
@@ -11380,7 +11418,7 @@
         <v>169</v>
       </c>
       <c r="O213" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="214" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -11397,37 +11435,37 @@
         <v>39</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>178</v>
       </c>
       <c r="H214" s="2"/>
       <c r="I214" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="J214" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="K214" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L214" s="2" t="s">
         <v>320</v>
       </c>
       <c r="M214" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O214" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="215" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>31</v>
@@ -11436,35 +11474,35 @@
         <v>27</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E215" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="F215" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="F215" s="2" t="s">
-        <v>689</v>
-      </c>
       <c r="G215" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H215" s="2"/>
       <c r="I215" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J215" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="J215" s="2" t="s">
+      <c r="K215" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="K215" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="L215" s="2" t="s">
         <v>133</v>
       </c>
       <c r="M215" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="O215" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="O215" s="2" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="216" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -11494,19 +11532,19 @@
         <v>170</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K216" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L216" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M216" s="2" t="s">
         <v>170</v>
       </c>
       <c r="O216" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="217" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -11536,19 +11574,19 @@
         <v>171</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K217" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L217" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M217" s="2" t="s">
         <v>171</v>
       </c>
       <c r="O217" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="218" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -11578,19 +11616,19 @@
         <v>172</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K218" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L218" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M218" s="2" t="s">
         <v>172</v>
       </c>
       <c r="O218" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="219" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -11620,10 +11658,10 @@
         <v>173</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K219" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L219" s="2" t="s">
         <v>128</v>
@@ -11632,7 +11670,7 @@
         <v>173</v>
       </c>
       <c r="O219" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="220" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -11662,19 +11700,19 @@
         <v>174</v>
       </c>
       <c r="J220" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K220" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L220" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M220" s="9" t="s">
         <v>174</v>
       </c>
       <c r="O220" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="221" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -11704,19 +11742,19 @@
         <v>176</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K221" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L221" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M221" s="2" t="s">
         <v>176</v>
       </c>
       <c r="O221" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="222" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -11727,36 +11765,36 @@
         <v>115</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G222" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
       <c r="K222" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="L222" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="M222" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="L222" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="M222" s="2" t="s">
+      <c r="O222" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="O222" s="2" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="223" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -11767,10 +11805,10 @@
         <v>115</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>26</v>
@@ -11782,21 +11820,21 @@
         <v>39</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I223" s="2"/>
       <c r="J223" s="2"/>
       <c r="K223" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="L223" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="M223" s="2" t="s">
         <v>133</v>
       </c>
       <c r="O223" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="224" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -11807,10 +11845,10 @@
         <v>115</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>26</v>
@@ -11822,21 +11860,21 @@
         <v>39</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
       <c r="K224" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="L224" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="M224" s="2" t="s">
         <v>133</v>
       </c>
       <c r="O224" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="225" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -11866,26 +11904,26 @@
         <v>23</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E226" s="2"/>
       <c r="G226" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K226" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="L226" s="2" t="s">
         <v>179</v>
       </c>
       <c r="M226" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O226" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="227" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -11905,10 +11943,10 @@
         <v>180</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K227" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="L227" s="2" t="s">
         <v>180</v>
@@ -11917,7 +11955,7 @@
         <v>162</v>
       </c>
       <c r="O227" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="228" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -11937,19 +11975,19 @@
         <v>181</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K228" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="L228" s="2" t="s">
         <v>181</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="O228" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="229" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -11969,19 +12007,19 @@
         <v>182</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L229" s="2" t="s">
         <v>182</v>
       </c>
       <c r="M229" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O229" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="230" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -12001,19 +12039,19 @@
         <v>183</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K230" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L230" s="2" t="s">
         <v>183</v>
       </c>
       <c r="M230" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="O230" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="231" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -12033,19 +12071,19 @@
         <v>184</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K231" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="L231" s="2" t="s">
         <v>184</v>
       </c>
       <c r="M231" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O231" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="232" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -12065,19 +12103,19 @@
         <v>185</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K232" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="L232" s="2" t="s">
         <v>185</v>
       </c>
       <c r="M232" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="O232" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="233" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -12103,19 +12141,19 @@
         <v>39</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K233" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L233" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M233" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O233" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="234" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -12141,10 +12179,10 @@
         <v>39</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K234" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="L234" s="2" t="s">
         <v>127</v>
@@ -12153,7 +12191,7 @@
         <v>186</v>
       </c>
       <c r="O234" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="235" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -12167,40 +12205,40 @@
         <v>177</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F235" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G235" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="G235" s="2" t="s">
-        <v>625</v>
-      </c>
       <c r="H235" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K235" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="L235" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="L235" s="2" t="s">
+      <c r="M235" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="N235" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="M235" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="N235" s="2" t="s">
+      <c r="O235" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="P235" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q235" s="2" t="s">
         <v>853</v>
-      </c>
-      <c r="O235" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="P235" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="Q235" s="2" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="236" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -12229,16 +12267,16 @@
         <v>188</v>
       </c>
       <c r="K238" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="L238" s="2" t="s">
         <v>189</v>
       </c>
       <c r="M238" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="O238" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="239" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -12258,16 +12296,16 @@
         <v>188</v>
       </c>
       <c r="K239" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="L239" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="L239" s="2" t="s">
+      <c r="M239" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="M239" s="2" t="s">
-        <v>871</v>
-      </c>
       <c r="O239" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="240" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -12287,16 +12325,16 @@
         <v>188</v>
       </c>
       <c r="K240" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L240" s="2" t="s">
         <v>80</v>
       </c>
       <c r="M240" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O240" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="241" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12316,16 +12354,16 @@
         <v>188</v>
       </c>
       <c r="K241" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="L241" s="2" t="s">
         <v>191</v>
       </c>
       <c r="M241" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="O241" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="242" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12339,22 +12377,22 @@
         <v>23</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>188</v>
       </c>
       <c r="K242" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="L242" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M242" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="O242" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="243" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12374,16 +12412,16 @@
         <v>188</v>
       </c>
       <c r="K243" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="L243" s="2" t="s">
         <v>192</v>
       </c>
       <c r="M243" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="O243" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="244" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12403,16 +12441,16 @@
         <v>188</v>
       </c>
       <c r="K244" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="L244" s="2" t="s">
         <v>163</v>
       </c>
       <c r="M244" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="O244" s="2" t="s">
         <v>883</v>
-      </c>
-      <c r="O244" s="2" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="245" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12432,16 +12470,16 @@
         <v>188</v>
       </c>
       <c r="K245" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L245" s="2" t="s">
         <v>193</v>
       </c>
       <c r="M245" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O245" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="246" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12495,16 +12533,16 @@
         <v>188</v>
       </c>
       <c r="K248" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L248" s="2" t="s">
         <v>196</v>
       </c>
       <c r="M248" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O248" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="249" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12524,16 +12562,16 @@
         <v>188</v>
       </c>
       <c r="K249" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L249" s="2" t="s">
         <v>197</v>
       </c>
       <c r="M249" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="O249" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="250" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12556,13 +12594,13 @@
         <v>267</v>
       </c>
       <c r="L250" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="M250" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="M250" s="2" t="s">
+      <c r="O250" s="2" t="s">
         <v>887</v>
-      </c>
-      <c r="O250" s="2" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="251" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12582,16 +12620,16 @@
         <v>188</v>
       </c>
       <c r="K251" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="L251" s="2" t="s">
         <v>199</v>
       </c>
       <c r="M251" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="N251" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="252" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12605,22 +12643,22 @@
         <v>23</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G252" s="2" t="s">
         <v>188</v>
       </c>
       <c r="K252" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="L252" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="M252" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="L252" s="2" t="s">
-        <v>1104</v>
-      </c>
-      <c r="M252" s="2" t="s">
-        <v>897</v>
-      </c>
       <c r="N252" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="253" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12640,7 +12678,7 @@
         <v>188</v>
       </c>
       <c r="K253" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L253" s="2" t="s">
         <v>200</v>
@@ -12649,7 +12687,7 @@
         <v>162</v>
       </c>
       <c r="N253" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="254" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12669,16 +12707,16 @@
         <v>188</v>
       </c>
       <c r="K254" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="L254" s="2" t="s">
         <v>201</v>
       </c>
       <c r="M254" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="N254" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="255" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12704,10 +12742,10 @@
         <v>202</v>
       </c>
       <c r="M255" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="N255" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="256" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12727,16 +12765,16 @@
         <v>188</v>
       </c>
       <c r="K256" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="L256" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="L256" s="2" t="s">
+      <c r="M256" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="M256" s="2" t="s">
-        <v>909</v>
-      </c>
       <c r="O256" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="257" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12756,16 +12794,16 @@
         <v>188</v>
       </c>
       <c r="K257" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L257" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="M257" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="M257" s="2" t="s">
-        <v>911</v>
-      </c>
       <c r="O257" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="258" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12785,16 +12823,16 @@
         <v>188</v>
       </c>
       <c r="K258" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L258" s="2" t="s">
         <v>205</v>
       </c>
       <c r="M258" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="O258" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="259" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12814,16 +12852,16 @@
         <v>188</v>
       </c>
       <c r="K259" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L259" s="2" t="s">
         <v>206</v>
       </c>
       <c r="M259" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O259" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="260" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12843,16 +12881,16 @@
         <v>188</v>
       </c>
       <c r="K260" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="L260" s="2" t="s">
         <v>207</v>
       </c>
       <c r="M260" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="O260" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="261" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12872,16 +12910,16 @@
         <v>188</v>
       </c>
       <c r="K261" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L261" s="2" t="s">
         <v>208</v>
       </c>
       <c r="M261" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="O261" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="262" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12901,7 +12939,7 @@
         <v>188</v>
       </c>
       <c r="K262" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L262" s="2"/>
       <c r="M262" s="2"/>
@@ -12918,22 +12956,22 @@
         <v>23</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>188</v>
       </c>
       <c r="K263" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="L263" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="L263" s="2" t="s">
+      <c r="M263" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="M263" s="2" t="s">
-        <v>922</v>
-      </c>
       <c r="O263" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="264" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12950,7 +12988,7 @@
         <v>210</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>275</v>
@@ -12965,7 +13003,7 @@
         <v>320</v>
       </c>
       <c r="O264" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="265" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -12979,25 +13017,25 @@
         <v>23</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>211</v>
       </c>
       <c r="K265" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="L265" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="M265" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="L265" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="M265" s="2" t="s">
+      <c r="O265" s="2" t="s">
         <v>934</v>
-      </c>
-      <c r="O265" s="2" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="266" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -13011,25 +13049,25 @@
         <v>23</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>275</v>
       </c>
       <c r="K266" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="L266" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="L266" s="2" t="s">
+      <c r="M266" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="M266" s="2" t="s">
+      <c r="O266" s="2" t="s">
         <v>939</v>
-      </c>
-      <c r="O266" s="2" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="267" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -13043,25 +13081,25 @@
         <v>23</v>
       </c>
       <c r="D267" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="K267" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="L267" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="M267" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="O267" s="2" t="s">
         <v>945</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="G267" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="K267" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="L267" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="M267" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="O267" s="2" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="268" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -13075,26 +13113,26 @@
         <v>23</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" s="2" t="s">
         <v>211</v>
       </c>
       <c r="K268" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="L268" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="M268" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="L268" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="M268" s="2" t="s">
+      <c r="O268" s="2" t="s">
         <v>951</v>
-      </c>
-      <c r="O268" s="2" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="269" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -13108,26 +13146,26 @@
         <v>23</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F269" s="2"/>
       <c r="G269" s="2" t="s">
         <v>275</v>
       </c>
       <c r="K269" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="L269" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="M269" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="L269" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="M269" s="2" t="s">
+      <c r="O269" s="2" t="s">
         <v>954</v>
-      </c>
-      <c r="O269" s="2" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="270" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -13145,22 +13183,22 @@
       </c>
       <c r="E270" s="4"/>
       <c r="F270" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>211</v>
       </c>
       <c r="K270" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="L270" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="L270" s="2" t="s">
+      <c r="M270" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="O270" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="M270" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="O270" s="2" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="271" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -13171,7 +13209,7 @@
         <v>31</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>213</v>
@@ -13180,17 +13218,17 @@
         <v>211</v>
       </c>
       <c r="K271" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L271" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="M271" s="2" t="s">
         <v>965</v>
-      </c>
-      <c r="M271" s="2" t="s">
-        <v>966</v>
       </c>
       <c r="N271" s="2"/>
       <c r="O271" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="272" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -13201,7 +13239,7 @@
         <v>31</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>193</v>
@@ -13210,17 +13248,17 @@
         <v>211</v>
       </c>
       <c r="K272" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="L272" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="M272" s="2" t="s">
         <v>882</v>
-      </c>
-      <c r="L272" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="M272" s="2" t="s">
-        <v>883</v>
       </c>
       <c r="N272" s="2"/>
       <c r="O272" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="273" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13231,7 +13269,7 @@
         <v>31</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>196</v>
@@ -13240,17 +13278,17 @@
         <v>211</v>
       </c>
       <c r="K273" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L273" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="M273" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N273" s="2"/>
       <c r="O273" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="274" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13261,7 +13299,7 @@
         <v>31</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>221</v>
@@ -13276,19 +13314,19 @@
         <v>222</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="K274" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="L274" s="2" t="s">
         <v>970</v>
-      </c>
-      <c r="L274" s="2" t="s">
-        <v>971</v>
       </c>
       <c r="M274" s="2" t="s">
         <v>215</v>
       </c>
       <c r="O274" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="275" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13299,7 +13337,7 @@
         <v>31</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>221</v>
@@ -13314,16 +13352,16 @@
         <v>222</v>
       </c>
       <c r="K275" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="L275" s="2" t="s">
         <v>974</v>
-      </c>
-      <c r="L275" s="2" t="s">
-        <v>975</v>
       </c>
       <c r="M275" s="2" t="s">
         <v>216</v>
       </c>
       <c r="O275" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="276" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13334,13 +13372,13 @@
         <v>31</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>221</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>217</v>
@@ -13349,16 +13387,16 @@
         <v>222</v>
       </c>
       <c r="K276" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="L276" s="2" t="s">
         <v>979</v>
-      </c>
-      <c r="L276" s="2" t="s">
-        <v>980</v>
       </c>
       <c r="M276" s="2" t="s">
         <v>217</v>
       </c>
       <c r="O276" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="277" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13369,37 +13407,37 @@
         <v>31</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>221</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>222</v>
       </c>
       <c r="K277" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="L277" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="L277" s="2" t="s">
+      <c r="M277" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="M277" s="2" t="s">
+      <c r="N277" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="N277" s="2" t="s">
+      <c r="O277" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q277" s="2" t="s">
         <v>986</v>
-      </c>
-      <c r="O277" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="Q277" s="2" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="278" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13410,31 +13448,31 @@
         <v>31</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>221</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>222</v>
       </c>
       <c r="K278" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="L278" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="L278" s="2" t="s">
+      <c r="M278" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="O278" s="2" t="s">
         <v>989</v>
-      </c>
-      <c r="M278" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="O278" s="2" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="279" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13445,32 +13483,32 @@
         <v>31</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>221</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>222</v>
       </c>
       <c r="K279" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="L279" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="M279" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="N279" s="2"/>
       <c r="O279" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="280" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13481,13 +13519,13 @@
         <v>31</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>221</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>218</v>
@@ -13496,17 +13534,17 @@
         <v>222</v>
       </c>
       <c r="K280" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="L280" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="M280" s="2" t="s">
         <v>995</v>
-      </c>
-      <c r="M280" s="2" t="s">
-        <v>996</v>
       </c>
       <c r="N280" s="2"/>
       <c r="O280" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="281" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13517,32 +13555,32 @@
         <v>31</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>221</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>222</v>
       </c>
       <c r="K281" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="L281" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="M281" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="282" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13553,19 +13591,19 @@
         <v>31</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D282" s="27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E282" s="27" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F282" s="27" t="s">
+        <v>977</v>
+      </c>
+      <c r="G282" s="27" t="s">
         <v>1105</v>
-      </c>
-      <c r="E282" s="27" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F282" s="27" t="s">
-        <v>978</v>
-      </c>
-      <c r="G282" s="27" t="s">
-        <v>1106</v>
       </c>
       <c r="K282" s="2"/>
       <c r="L282" s="2"/>
@@ -13587,7 +13625,7 @@
         <v>221</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>219</v>
@@ -13596,17 +13634,17 @@
         <v>222</v>
       </c>
       <c r="K283" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="L283" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="L283" s="2" t="s">
-        <v>993</v>
       </c>
       <c r="M283" s="2" t="s">
         <v>219</v>
       </c>
       <c r="N283" s="2"/>
       <c r="O283" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="284" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13623,26 +13661,26 @@
         <v>221</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G284" s="2" t="s">
         <v>222</v>
       </c>
       <c r="K284" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="L284" s="2" t="s">
         <v>227</v>
       </c>
       <c r="M284" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="N284" s="2"/>
       <c r="O284" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="285" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13659,7 +13697,7 @@
         <v>223</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>84</v>
@@ -13668,7 +13706,7 @@
         <v>222</v>
       </c>
       <c r="K285" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="L285" s="2" t="s">
         <v>223</v>
@@ -13678,7 +13716,7 @@
       </c>
       <c r="N285" s="2"/>
       <c r="O285" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="286" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13692,7 +13730,7 @@
         <v>214</v>
       </c>
       <c r="D286" s="28" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E286" s="28" t="s">
         <v>107</v>
@@ -13732,17 +13770,17 @@
         <v>222</v>
       </c>
       <c r="K287" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="L287" s="2" t="s">
         <v>224</v>
       </c>
       <c r="M287" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="N287" s="2"/>
       <c r="O287" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="288" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13768,17 +13806,17 @@
         <v>222</v>
       </c>
       <c r="K288" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="L288" s="2" t="s">
         <v>226</v>
       </c>
       <c r="M288" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="N288" s="2"/>
       <c r="O288" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="289" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13804,16 +13842,16 @@
         <v>222</v>
       </c>
       <c r="K289" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L289" s="2" t="s">
         <v>227</v>
       </c>
       <c r="M289" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="O289" s="2" t="s">
         <v>1016</v>
-      </c>
-      <c r="O289" s="2" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="290" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13839,16 +13877,16 @@
         <v>222</v>
       </c>
       <c r="K290" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L290" s="2" t="s">
         <v>228</v>
       </c>
       <c r="M290" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="O290" s="2" t="s">
         <v>1019</v>
-      </c>
-      <c r="O290" s="2" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="291" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13859,30 +13897,30 @@
         <v>31</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>221</v>
       </c>
       <c r="E291" s="2"/>
       <c r="F291" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>188</v>
       </c>
       <c r="K291" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="L291" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="L291" s="2" t="s">
-        <v>959</v>
-      </c>
       <c r="M291" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="N291" s="2"/>
       <c r="O291" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="292" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13893,10 +13931,10 @@
         <v>115</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>84</v>
@@ -13905,25 +13943,25 @@
         <v>220</v>
       </c>
       <c r="K292" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L292" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M292" s="2" t="s">
         <v>1023</v>
-      </c>
-      <c r="M292" s="2" t="s">
-        <v>1024</v>
       </c>
       <c r="N292" s="2" t="s">
         <v>84</v>
       </c>
       <c r="O292" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="P292" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="P292" s="2" t="s">
+      <c r="Q292" s="2" t="s">
         <v>1026</v>
-      </c>
-      <c r="Q292" s="2" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="293" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13947,7 +13985,7 @@
         <v>220</v>
       </c>
       <c r="K293" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="L293" s="2" t="s">
         <v>212</v>
@@ -13957,7 +13995,7 @@
       </c>
       <c r="N293" s="2"/>
       <c r="O293" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="294" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -13977,22 +14015,22 @@
         <v>107</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G294" s="2" t="s">
         <v>220</v>
       </c>
       <c r="K294" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="L294" s="2" t="s">
         <v>232</v>
       </c>
       <c r="M294" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="O294" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="295" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -14003,10 +14041,10 @@
         <v>115</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>2</v>
@@ -14018,10 +14056,10 @@
         <v>220</v>
       </c>
       <c r="K295" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L295" s="2" t="s">
         <v>1033</v>
-      </c>
-      <c r="L295" s="2" t="s">
-        <v>1034</v>
       </c>
       <c r="M295" s="2" t="s">
         <v>233</v>
@@ -14030,13 +14068,13 @@
         <v>233</v>
       </c>
       <c r="O295" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="P295" s="8" t="s">
         <v>1035</v>
       </c>
-      <c r="P295" s="8" t="s">
+      <c r="Q295" s="2" t="s">
         <v>1036</v>
-      </c>
-      <c r="Q295" s="2" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="296" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -14059,10 +14097,10 @@
         <v>233</v>
       </c>
       <c r="G296" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K296" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="297" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -14082,13 +14120,13 @@
         <v>11</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>220</v>
       </c>
       <c r="K297" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="L297" s="2" t="s">
         <v>197</v>
@@ -14097,7 +14135,7 @@
         <v>84</v>
       </c>
       <c r="O297" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="298" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -14123,16 +14161,16 @@
         <v>275</v>
       </c>
       <c r="K298" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L298" s="2" t="s">
         <v>196</v>
       </c>
       <c r="M298" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="O298" s="2" t="s">
         <v>1041</v>
-      </c>
-      <c r="O298" s="2" t="s">
-        <v>1042</v>
       </c>
     </row>
   </sheetData>
@@ -14159,7 +14197,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -14169,10 +14207,10 @@
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>1044</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>1045</v>
       </c>
       <c r="K1" s="23"/>
     </row>
@@ -14190,19 +14228,19 @@
     </row>
     <row r="3" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>1048</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>1049</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -14212,16 +14250,16 @@
     </row>
     <row r="4" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="2"/>
@@ -14232,19 +14270,19 @@
     </row>
     <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>1052</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>1053</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>1054</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -14254,19 +14292,19 @@
     </row>
     <row r="6" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -14276,16 +14314,16 @@
     </row>
     <row r="7" spans="1:11" ht="108" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>1059</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1060</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="2"/>
@@ -14296,16 +14334,16 @@
     </row>
     <row r="8" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>1062</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1063</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="2"/>
@@ -14316,16 +14354,16 @@
     </row>
     <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="2"/>
@@ -14336,7 +14374,7 @@
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>220</v>
@@ -14345,7 +14383,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="2"/>
@@ -14356,16 +14394,16 @@
     </row>
     <row r="11" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>270</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>1068</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1069</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="2"/>
@@ -14376,16 +14414,16 @@
     </row>
     <row r="12" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>236</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
@@ -14408,16 +14446,16 @@
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>1076</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>1077</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
@@ -14428,7 +14466,7 @@
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>20</v>
@@ -14437,7 +14475,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="2"/>
@@ -14448,16 +14486,16 @@
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
@@ -14468,19 +14506,19 @@
     </row>
     <row r="17" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>1086</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>1087</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -14490,16 +14528,16 @@
     </row>
     <row r="18" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
@@ -14510,16 +14548,16 @@
     </row>
     <row r="19" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="2"/>
@@ -14530,16 +14568,16 @@
     </row>
     <row r="20" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>

--- a/TS Jatai Working/Raja Files/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Raja Files/Rule Processing Table.xlsx
@@ -3495,13 +3495,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -3675,74 +3681,74 @@
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4026,7 +4032,7 @@
   <dimension ref="A3:V306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="I15" sqref="I15"/>

--- a/TS Jatai Working/Raja Files/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Raja Files/Rule Processing Table.xlsx
@@ -15,6 +15,9 @@
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$142:$A$143</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3492,13 +3495,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -3676,74 +3685,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4027,10 +4037,10 @@
   <dimension ref="A3:V306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E303" sqref="E303"/>
+      <selection pane="bottomRight" activeCell="A142" sqref="A142:A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4070,7 +4080,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:17" ht="54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1038</v>
       </c>
@@ -8863,7 +8873,7 @@
       <c r="P140" s="2"/>
     </row>
     <row r="142" spans="1:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="45" t="s">
         <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -8888,7 +8898,7 @@
       </c>
     </row>
     <row r="143" spans="1:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="45" t="s">
         <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -14622,6 +14632,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A142:A143"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TS Jatai Working/Raja Files/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Raja Files/Rule Processing Table.xlsx
@@ -4037,10 +4037,10 @@
   <dimension ref="A3:V306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A142" sqref="A142:A143"/>
+      <selection pane="bottomRight" activeCell="F294" sqref="F294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/Raja Files/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Raja Files/Rule Processing Table.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$104:$A$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$111:$A$112</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="473">
   <si>
     <t>Special Rules Tables for Rajadhiraaja</t>
   </si>
@@ -1417,18 +1417,75 @@
   <si>
     <t>praticCinnam</t>
   </si>
+  <si>
+    <t>Unu</t>
+  </si>
+  <si>
+    <t>U nu</t>
+  </si>
+  <si>
+    <t>nu prati</t>
+  </si>
+  <si>
+    <t>U nu prati</t>
+  </si>
+  <si>
+    <t>nU</t>
+  </si>
+  <si>
+    <t>Utu</t>
+  </si>
+  <si>
+    <t>7.5.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tu </t>
+  </si>
+  <si>
+    <t>tU</t>
+  </si>
+  <si>
+    <t>tAsA$m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uq </t>
+  </si>
+  <si>
+    <t>tAsAmu</t>
+  </si>
+  <si>
+    <t>tAsAmU tu</t>
+  </si>
+  <si>
+    <t>pAtu</t>
+  </si>
+  <si>
+    <t>pAtU</t>
+  </si>
+  <si>
+    <t>UpAtu</t>
+  </si>
+  <si>
+    <t>upAtu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1594,68 +1651,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1936,13 +1998,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:V112"/>
+  <dimension ref="A3:V119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C111" sqref="C111"/>
+      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3313,398 +3375,656 @@
       <c r="P37"/>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:20" ht="54" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+    <row r="38" spans="1:20" s="13" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="I38" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="K38" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="L38" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="O38" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="P38" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q38" s="40" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="13" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="I39" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="K39" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="L39" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="P39" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q39" s="40" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="13" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="G40" s="40"/>
+      <c r="H40" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="J40" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="K40" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="L40" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="O40" s="40" t="s">
+        <v>460</v>
+      </c>
+      <c r="P40" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q40" s="40" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="13" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="I41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="K41" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="L41" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" s="40" t="s">
+        <v>463</v>
+      </c>
+      <c r="O41" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="P41" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q41" s="40" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" s="13" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="G42" s="40"/>
+      <c r="H42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="J42" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="K42" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="L42" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" s="40" t="s">
+        <v>464</v>
+      </c>
+      <c r="P42" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q42" s="40" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" s="13" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A43" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="I43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="K43" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="L43" s="40" t="s">
+        <v>465</v>
+      </c>
+      <c r="M43" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="N43" s="40" t="s">
+        <v>463</v>
+      </c>
+      <c r="O43" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="P43" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q43" s="40" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" s="13" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A44" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="I44" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="J44" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="K44" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="L44" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="M44" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="P44" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q44" s="40" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A45" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="G45" s="40"/>
+      <c r="H45" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="I45" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="J45" s="39" t="s">
+        <v>471</v>
+      </c>
+      <c r="K45" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="L45" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="O45" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="P45" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q45" s="40" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
         <v>300</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="S39" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="T39" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="72" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-    </row>
-    <row r="42" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="K43" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I44" s="2"/>
-      <c r="K44" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>450</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:20" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="B47" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="S46" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T46" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="35"/>
-      <c r="H47" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="16" t="s">
-        <v>41</v>
+      <c r="C47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>175</v>
+        <v>33</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>301</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+    </row>
+    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="K50" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>300</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>30</v>
@@ -3713,281 +4033,142 @@
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>305</v>
+        <v>32</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J51" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I51" s="2"/>
       <c r="K51" s="2" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>314</v>
+        <v>166</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>57</v>
+        <v>167</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>450</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>307</v>
+        <v>37</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:20" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="B54" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="C54" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>57</v>
+      <c r="F54" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="35"/>
+      <c r="H54" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>57</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>450</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="I55" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M55" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="O55" s="28" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I56" s="36" t="s">
-        <v>444</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="F55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -3998,7 +4179,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>54</v>
+        <v>305</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>11</v>
@@ -4009,20 +4190,30 @@
       <c r="I58" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="J58" s="2"/>
       <c r="K58" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>209</v>
+        <v>191</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
@@ -4033,7 +4224,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>55</v>
+        <v>306</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>11</v>
@@ -4045,19 +4236,28 @@
         <v>57</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c r="M59" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N59" s="2" t="s">
         <v>196</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>57</v>
       </c>
@@ -4068,7 +4268,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>56</v>
+        <v>307</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
@@ -4080,304 +4280,296 @@
         <v>57</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>212</v>
+        <v>24</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>451</v>
+      <c r="C61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="16" t="s">
-        <v>303</v>
+      <c r="C62" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>309</v>
+        <v>51</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>90</v>
+      <c r="F62" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="I62" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="M62" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62" s="28" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="B63" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C63" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>42</v>
+      <c r="F63" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63" s="36" t="s">
+        <v>444</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>6</v>
+      </c>
       <c r="O63" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="B64" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="D64" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H64" s="2" t="s">
+      <c r="F64" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="K64" s="2" t="s">
-        <v>233</v>
+        <v>406</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>407</v>
+      </c>
       <c r="O64" s="2" t="s">
-        <v>235</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="B65" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C65" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>237</v>
+        <v>54</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="K65" s="2" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>236</v>
+        <v>54</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>209</v>
+      </c>
       <c r="O65" s="2" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="B66" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C66" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="K66" s="2" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>196</v>
+      </c>
       <c r="O66" s="2" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="B67" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C67" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="K67" s="2" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>212</v>
+      </c>
       <c r="O67" s="2" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>62</v>
+      <c r="B68" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>451</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>11</v>
@@ -4385,38 +4577,40 @@
       <c r="F68" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="I68" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O68" s="2" t="s">
-        <v>243</v>
+        <v>215</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>2</v>
+      <c r="B69" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>11</v>
@@ -4424,35 +4618,26 @@
       <c r="F69" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="I69" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>245</v>
+        <v>91</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q69" s="2" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -4463,7 +4648,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>11</v>
@@ -4481,17 +4666,17 @@
         <v>42</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -4501,8 +4686,8 @@
       <c r="C71" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>64</v>
+      <c r="D71" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>11</v>
@@ -4520,17 +4705,17 @@
         <v>42</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -4541,7 +4726,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>65</v>
+        <v>237</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>11</v>
@@ -4559,16 +4744,17 @@
         <v>42</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>65</v>
+        <v>236</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>176</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -4579,7 +4765,7 @@
         <v>2</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>11</v>
@@ -4597,16 +4783,17 @@
         <v>42</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>176</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -4617,7 +4804,7 @@
         <v>2</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>11</v>
@@ -4635,16 +4822,17 @@
         <v>42</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>253</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -4655,29 +4843,35 @@
         <v>2</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H75" s="2"/>
+      <c r="H75" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="I75" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="L75" s="11" t="s">
-        <v>259</v>
+        <v>224</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -4688,34 +4882,43 @@
         <v>2</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>70</v>
+        <v>409</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="H76" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="I76" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>261</v>
+        <v>244</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>262</v>
+        <v>245</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -4726,182 +4929,299 @@
         <v>2</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="H77" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="I77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="J82" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="K82" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K84" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="L77" s="11" t="s">
+      <c r="L84" s="11" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="I84" s="2"/>
-      <c r="K84" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
     <row r="85" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A85" s="3"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>404</v>
-      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -4911,12 +5231,13 @@
       <c r="B86" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>404</v>
@@ -4935,7 +5256,7 @@
         <v>2</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>404</v>
@@ -4954,7 +5275,7 @@
         <v>2</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>404</v>
@@ -4973,7 +5294,7 @@
         <v>2</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>404</v>
@@ -4992,7 +5313,7 @@
         <v>2</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>404</v>
@@ -5011,12 +5332,24 @@
         <v>2</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>404</v>
       </c>
       <c r="I91" s="2"/>
+      <c r="K91" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="92" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
@@ -5025,42 +5358,17 @@
       <c r="B92" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>263</v>
-      </c>
+      <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>264</v>
+        <v>100</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="H92" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="O92" s="2" t="s">
-        <v>265</v>
-      </c>
+      <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="20" t="s">
@@ -5071,10 +5379,10 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>404</v>
@@ -5090,10 +5398,10 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>270</v>
+        <v>102</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>404</v>
@@ -5107,28 +5415,17 @@
       <c r="B95" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>269</v>
-      </c>
+      <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G95" s="2"/>
-      <c r="I95" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>275</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
@@ -5137,216 +5434,139 @@
       <c r="B96" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>269</v>
-      </c>
+      <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G96" s="2"/>
-      <c r="I96" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>263</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="G97" s="2"/>
-      <c r="I97" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>315</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="G98" s="2"/>
-      <c r="I98" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="M98" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O98" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>319</v>
+        <v>2</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="G99" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="I99" s="2" t="s">
-        <v>318</v>
+        <v>264</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>327</v>
+        <v>263</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>264</v>
+      </c>
       <c r="O99" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="P99" s="2"/>
-    </row>
-    <row r="100" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D100" s="2"/>
       <c r="E100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="G100" s="2"/>
-      <c r="I100" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="P100" s="2"/>
-    </row>
-    <row r="101" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>312</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="G101" s="2"/>
-      <c r="I101" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="P101" s="2"/>
-    </row>
-    <row r="102" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="20" t="s">
         <v>57</v>
       </c>
@@ -5354,259 +5574,505 @@
         <v>88</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="G102" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G102" s="2"/>
       <c r="I102" s="2" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>339</v>
+        <v>272</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="P102" s="2"/>
-    </row>
-    <row r="104" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="A104" s="37" t="s">
-        <v>106</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A103" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="I103" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A104" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="A105" s="37" t="s">
-        <v>106</v>
+      <c r="C104" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="G104" s="2"/>
+      <c r="I104" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A105" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A107" s="3"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
+      <c r="C105" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="I105" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A106" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="I106" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="P106" s="2"/>
+    </row>
+    <row r="107" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A107" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="I107" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
+      <c r="O107" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
-      <c r="S107" s="2"/>
-      <c r="T107" s="6"/>
-      <c r="U107" s="6"/>
-      <c r="V107" s="6"/>
-    </row>
-    <row r="108" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A108" s="15" t="s">
-        <v>44</v>
+    </row>
+    <row r="108" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A108" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>47</v>
+        <v>312</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="F108" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="G108" s="2"/>
       <c r="I108" s="2" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="N108" s="6"/>
+        <v>336</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="P108" s="6"/>
-      <c r="Q108" s="6"/>
-      <c r="R108" s="6"/>
-      <c r="S108" s="6"/>
-      <c r="T108" s="6"/>
-      <c r="U108" s="6"/>
-      <c r="V108" s="6"/>
-    </row>
-    <row r="109" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A109" s="15" t="s">
-        <v>46</v>
+        <v>337</v>
+      </c>
+      <c r="P108" s="2"/>
+    </row>
+    <row r="109" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A109" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="F109" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G109" s="8"/>
+      <c r="I109" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="P109" s="2"/>
+    </row>
+    <row r="111" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A111" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A112" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A114" s="3"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="6"/>
+      <c r="U114" s="6"/>
+      <c r="V114" s="6"/>
+    </row>
+    <row r="115" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A115" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="I115" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="N115" s="6"/>
+      <c r="O115" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+      <c r="T115" s="6"/>
+      <c r="U115" s="6"/>
+      <c r="V115" s="6"/>
+    </row>
+    <row r="116" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A116" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I116" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2" t="s">
+      <c r="J116" s="2"/>
+      <c r="K116" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="L109" s="2" t="s">
+      <c r="L116" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="M109" s="2" t="s">
+      <c r="M116" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="N109" s="6"/>
-      <c r="O109" s="2" t="s">
+      <c r="N116" s="6"/>
+      <c r="O116" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P109" s="6"/>
-      <c r="Q109" s="6"/>
-      <c r="R109" s="6"/>
-      <c r="S109" s="6"/>
-      <c r="T109" s="6"/>
-      <c r="U109" s="6"/>
-      <c r="V109" s="6"/>
-    </row>
-    <row r="110" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="15" t="s">
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="6"/>
+      <c r="T116" s="6"/>
+      <c r="U116" s="6"/>
+      <c r="V116" s="6"/>
+    </row>
+    <row r="117" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A117" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="H117" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I110" s="2" t="s">
+      <c r="I117" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2" t="s">
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="M110" s="2" t="s">
+      <c r="M117" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="N110" s="6"/>
-      <c r="O110" s="2" t="s">
+      <c r="N117" s="6"/>
+      <c r="O117" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="P110" s="6"/>
-      <c r="Q110" s="6"/>
-      <c r="R110" s="6"/>
-      <c r="S110" s="6"/>
-      <c r="T110" s="6"/>
-      <c r="U110" s="6"/>
-      <c r="V110" s="6"/>
-    </row>
-    <row r="111" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="H111" s="2"/>
-    </row>
-    <row r="112" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="H112" s="2"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="6"/>
+      <c r="T117" s="6"/>
+      <c r="U117" s="6"/>
+      <c r="V117" s="6"/>
+    </row>
+    <row r="118" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="H118" s="2"/>
+    </row>
+    <row r="119" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="H119" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A104:A105"/>
+  <autoFilter ref="A111:A112"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TS Jatai Working/Raja Files/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Raja Files/Rule Processing Table.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$111:$A$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rules!$A$112:$A$113</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="473">
   <si>
     <t>Special Rules Tables for Rajadhiraaja</t>
   </si>
@@ -1651,7 +1651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1718,6 +1718,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1998,13 +2000,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:V119"/>
+  <dimension ref="A3:V120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="K31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomRight" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3433,51 +3435,47 @@
         <v>410</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>411</v>
+        <v>284</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>24</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>355</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="H39" s="43" t="s">
         <v>410</v>
       </c>
-      <c r="I39" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="39" t="s">
-        <v>456</v>
+      <c r="I39" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>461</v>
       </c>
       <c r="K39" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="L39" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="L39" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="M39" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="O39" s="40" t="s">
-        <v>410</v>
-      </c>
-      <c r="P39" s="40" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q39" s="40" t="s">
-        <v>456</v>
-      </c>
+      <c r="M39" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="40"/>
+      <c r="O39" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
     </row>
     <row r="40" spans="1:20" s="13" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
@@ -3487,47 +3485,47 @@
         <v>88</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="D40" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="F40" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="F40" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="G40" s="40"/>
+      <c r="G40" s="39"/>
       <c r="H40" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="I40" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="39" t="s">
-        <v>410</v>
-      </c>
       <c r="J40" s="39" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K40" s="40" t="s">
         <v>226</v>
       </c>
       <c r="L40" s="40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M40" s="40" t="s">
         <v>24</v>
       </c>
       <c r="N40" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O40" s="40" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="P40" s="40" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="Q40" s="40" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="13" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -3538,47 +3536,47 @@
         <v>88</v>
       </c>
       <c r="C41" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="D41" s="39" t="s">
+      <c r="F41" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="E41" s="41" t="s">
-        <v>355</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="39"/>
+      <c r="G41" s="40"/>
       <c r="H41" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="I41" s="39" t="s">
-        <v>21</v>
-      </c>
       <c r="J41" s="39" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K41" s="40" t="s">
-        <v>462</v>
+        <v>226</v>
       </c>
       <c r="L41" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M41" s="40" t="s">
         <v>24</v>
       </c>
       <c r="N41" s="40" t="s">
-        <v>463</v>
+        <v>24</v>
       </c>
       <c r="O41" s="40" t="s">
+        <v>460</v>
+      </c>
+      <c r="P41" s="40" t="s">
         <v>410</v>
       </c>
-      <c r="P41" s="40" t="s">
-        <v>461</v>
-      </c>
       <c r="Q41" s="40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="13" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -3589,47 +3587,47 @@
         <v>88</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="D42" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="F42" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="F42" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="G42" s="40"/>
+      <c r="G42" s="39"/>
       <c r="H42" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="I42" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="39" t="s">
-        <v>410</v>
-      </c>
       <c r="J42" s="39" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K42" s="40" t="s">
         <v>462</v>
       </c>
       <c r="L42" s="40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M42" s="40" t="s">
         <v>24</v>
       </c>
       <c r="N42" s="40" t="s">
-        <v>24</v>
+        <v>463</v>
       </c>
       <c r="O42" s="40" t="s">
-        <v>464</v>
+        <v>410</v>
       </c>
       <c r="P42" s="40" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="Q42" s="40" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="13" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -3637,52 +3635,50 @@
         <v>410</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C43" s="40" t="s">
         <v>284</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="F43" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="G43" s="40"/>
+      <c r="H43" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="40" t="s">
-        <v>426</v>
-      </c>
-      <c r="H43" s="39" t="s">
+      <c r="I43" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="I43" s="39" t="s">
-        <v>21</v>
-      </c>
       <c r="J43" s="39" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="K43" s="40" t="s">
         <v>462</v>
       </c>
       <c r="L43" s="40" t="s">
-        <v>465</v>
+        <v>21</v>
       </c>
       <c r="M43" s="40" t="s">
-        <v>466</v>
+        <v>24</v>
       </c>
       <c r="N43" s="40" t="s">
-        <v>463</v>
+        <v>24</v>
       </c>
       <c r="O43" s="40" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="P43" s="40" t="s">
-        <v>461</v>
+        <v>410</v>
       </c>
       <c r="Q43" s="40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="13" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -3690,149 +3686,157 @@
         <v>410</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>284</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>469</v>
+        <v>24</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="F44" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40" t="s">
-        <v>469</v>
+        <v>284</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>410</v>
       </c>
       <c r="I44" s="39" t="s">
-        <v>410</v>
+        <v>21</v>
       </c>
       <c r="J44" s="39" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="K44" s="40" t="s">
-        <v>186</v>
+        <v>462</v>
       </c>
       <c r="L44" s="40" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M44" s="40" t="s">
-        <v>24</v>
+        <v>466</v>
       </c>
       <c r="N44" s="40" t="s">
-        <v>24</v>
+        <v>463</v>
       </c>
       <c r="O44" s="40" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="P44" s="40" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="Q44" s="40" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" s="13" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
         <v>410</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="E45" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="F45" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="E45" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="F45" s="40" t="s">
+      <c r="G45" s="40"/>
+      <c r="H45" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="G45" s="40"/>
-      <c r="H45" s="39" t="s">
+      <c r="I45" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="I45" s="39" t="s">
-        <v>469</v>
-      </c>
       <c r="J45" s="39" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K45" s="40" t="s">
         <v>186</v>
       </c>
       <c r="L45" s="40" t="s">
-        <v>24</v>
+        <v>469</v>
       </c>
       <c r="M45" s="40" t="s">
         <v>24</v>
       </c>
       <c r="N45" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="O45" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="P45" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q45" s="40" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="F46" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="O45" s="40" t="s">
+      <c r="G46" s="40"/>
+      <c r="H46" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="P45" s="40" t="s">
+      <c r="I46" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="J46" s="39" t="s">
+        <v>471</v>
+      </c>
+      <c r="K46" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="L46" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="O46" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="P46" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="Q45" s="40" t="s">
+      <c r="Q46" s="40" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="54" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="S46" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="T46" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>300</v>
       </c>
@@ -3849,44 +3853,35 @@
         <v>2</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>297</v>
+        <v>157</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="S47" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T47" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>300</v>
       </c>
@@ -3899,34 +3894,48 @@
       <c r="D48" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="18" t="s">
-        <v>301</v>
+      <c r="E48" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>33</v>
+        <v>297</v>
       </c>
       <c r="H48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="K48" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="L48" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N48" s="2"/>
+      <c r="N48" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="O48" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-    </row>
-    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="P48" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>300</v>
       </c>
@@ -3939,37 +3948,32 @@
       <c r="D49" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>93</v>
+      <c r="E49" s="18" t="s">
+        <v>301</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
       <c r="L49" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>169</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S49" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>117</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
     </row>
     <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
@@ -3985,35 +3989,29 @@
         <v>32</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>298</v>
+        <v>116</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I50" s="2"/>
+      <c r="J50" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="K50" s="2" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S50" s="2" t="s">
         <v>117</v>
@@ -4039,32 +4037,32 @@
         <v>2</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="I51" s="2"/>
       <c r="K51" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="S51" s="2" t="s">
         <v>117</v>
@@ -4073,145 +4071,151 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+    <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="K52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="1:20" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:20" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B55" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C55" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D55" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E55" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F55" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G54" s="35"/>
-      <c r="H54" s="16" t="s">
+      <c r="G55" s="35"/>
+      <c r="H55" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I54" s="16" t="s">
+      <c r="I55" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="M54" s="2" t="s">
+      <c r="M55" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="O54" s="2" t="s">
+      <c r="O55" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+    <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-    </row>
     <row r="58" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="A58" s="3"/>
     </row>
     <row r="59" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -4224,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>11</v>
@@ -4235,26 +4239,27 @@
       <c r="I59" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="J59" s="2"/>
       <c r="K59" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
@@ -4268,7 +4273,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
@@ -4280,25 +4285,25 @@
         <v>57</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
@@ -4312,7 +4317,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>11</v>
@@ -4324,25 +4329,25 @@
         <v>57</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
@@ -4356,31 +4361,37 @@
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>51</v>
+        <v>308</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="I62" s="36" t="s">
-        <v>74</v>
+      <c r="F62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M62" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="O62" s="28" t="s">
-        <v>427</v>
+        <v>203</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
@@ -4394,7 +4405,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>11</v>
@@ -4402,90 +4413,93 @@
       <c r="F63" s="28" t="s">
         <v>6</v>
       </c>
+      <c r="G63" s="28" t="s">
+        <v>426</v>
+      </c>
       <c r="I63" s="36" t="s">
-        <v>444</v>
+        <v>74</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M63" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M63" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="O63" s="2" t="s">
-        <v>208</v>
+      <c r="O63" s="28" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E64" s="16" t="s">
+      <c r="D64" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>57</v>
+      <c r="F64" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" s="36" t="s">
+        <v>444</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>406</v>
+        <v>185</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>407</v>
+        <v>6</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>408</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E65" s="2" t="s">
+      <c r="D65" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>57</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>186</v>
+        <v>406</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>209</v>
+        <v>407</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>210</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -4499,7 +4513,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>11</v>
@@ -4511,16 +4525,16 @@
         <v>57</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -4534,7 +4548,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>11</v>
@@ -4546,71 +4560,65 @@
         <v>57</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>451</v>
+      <c r="C68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>309</v>
+      <c r="D69" s="16" t="s">
+        <v>451</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>11</v>
@@ -4622,33 +4630,36 @@
         <v>90</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>216</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>2</v>
+      <c r="B70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>58</v>
+        <v>309</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>11</v>
@@ -4656,27 +4667,26 @@
       <c r="F70" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="I70" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="O70" s="2" t="s">
-        <v>232</v>
+        <v>91</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -4687,7 +4697,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>11</v>
@@ -4705,17 +4715,17 @@
         <v>42</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -4726,7 +4736,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>237</v>
+        <v>59</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>11</v>
@@ -4744,17 +4754,17 @@
         <v>42</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -4765,7 +4775,7 @@
         <v>2</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>11</v>
@@ -4783,17 +4793,17 @@
         <v>42</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -4804,7 +4814,7 @@
         <v>2</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>11</v>
@@ -4822,17 +4832,17 @@
         <v>42</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>171</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -4843,7 +4853,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>11</v>
@@ -4861,17 +4871,17 @@
         <v>42</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -4882,7 +4892,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>409</v>
+        <v>62</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>11</v>
@@ -4900,25 +4910,17 @@
         <v>42</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="N76" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q76" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -4929,7 +4931,7 @@
         <v>2</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>63</v>
+        <v>409</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>11</v>
@@ -4947,17 +4949,25 @@
         <v>42</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="M77" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N77" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="N77" s="2"/>
       <c r="O77" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -4967,8 +4977,8 @@
       <c r="C78" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>64</v>
+      <c r="D78" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>11</v>
@@ -4986,17 +4996,17 @@
         <v>42</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>176</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -5006,8 +5016,8 @@
       <c r="C79" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>65</v>
+      <c r="D79" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>11</v>
@@ -5025,16 +5035,17 @@
         <v>42</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -5045,7 +5056,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>11</v>
@@ -5063,16 +5074,16 @@
         <v>42</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>176</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -5083,7 +5094,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>11</v>
@@ -5101,16 +5112,16 @@
         <v>42</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -5121,29 +5132,34 @@
         <v>2</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H82" s="2"/>
+      <c r="H82" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="I82" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="L82" s="11" t="s">
-        <v>259</v>
+        <v>252</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -5154,7 +5170,7 @@
         <v>2</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>27</v>
@@ -5165,6 +5181,7 @@
       <c r="G83" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="H83" s="2"/>
       <c r="I83" s="2" t="s">
         <v>310</v>
       </c>
@@ -5172,16 +5189,10 @@
         <v>257</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -5192,7 +5203,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>27</v>
@@ -5210,38 +5221,56 @@
         <v>257</v>
       </c>
       <c r="K84" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K85" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="L84" s="11" t="s">
+      <c r="L85" s="11" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="I85" s="2"/>
-    </row>
     <row r="86" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C86" s="2"/>
+      <c r="A86" s="3"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>404</v>
-      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -5251,12 +5280,13 @@
       <c r="B87" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>404</v>
@@ -5275,7 +5305,7 @@
         <v>2</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>404</v>
@@ -5294,7 +5324,7 @@
         <v>2</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>404</v>
@@ -5313,7 +5343,7 @@
         <v>2</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>404</v>
@@ -5332,24 +5362,12 @@
         <v>2</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>404</v>
       </c>
       <c r="I91" s="2"/>
-      <c r="K91" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="92" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
@@ -5363,12 +5381,24 @@
         <v>2</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>404</v>
       </c>
       <c r="I92" s="2"/>
+      <c r="K92" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="93" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="20" t="s">
@@ -5382,7 +5412,7 @@
         <v>2</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>404</v>
@@ -5401,7 +5431,7 @@
         <v>2</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>404</v>
@@ -5420,7 +5450,7 @@
         <v>2</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>404</v>
@@ -5439,7 +5469,7 @@
         <v>2</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>404</v>
@@ -5458,7 +5488,7 @@
         <v>2</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>404</v>
@@ -5477,7 +5507,7 @@
         <v>2</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>404</v>
@@ -5491,42 +5521,17 @@
       <c r="B99" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>263</v>
-      </c>
+      <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>264</v>
+        <v>105</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="H99" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="M99" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="O99" s="2" t="s">
-        <v>265</v>
-      </c>
+      <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
@@ -5535,17 +5540,42 @@
       <c r="B100" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="E100" s="2" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="I100" s="2"/>
+      <c r="H100" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="101" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="20" t="s">
@@ -5559,7 +5589,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>404</v>
@@ -5573,28 +5603,17 @@
       <c r="B102" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>269</v>
-      </c>
+      <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G102" s="2"/>
-      <c r="I102" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>275</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="20" t="s">
@@ -5613,17 +5632,17 @@
         <v>80</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G103" s="2"/>
       <c r="I103" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -5631,35 +5650,29 @@
         <v>57</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>317</v>
+        <v>80</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="G104" s="2"/>
       <c r="I104" s="2" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="M104" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="O104" s="2" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -5673,7 +5686,7 @@
         <v>319</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>11</v>
@@ -5686,16 +5699,16 @@
         <v>318</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -5709,7 +5722,7 @@
         <v>319</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>11</v>
@@ -5722,19 +5735,17 @@
         <v>318</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>324</v>
+      </c>
       <c r="O106" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="P106" s="2"/>
+        <v>325</v>
+      </c>
     </row>
     <row r="107" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="20" t="s">
@@ -5747,7 +5758,7 @@
         <v>319</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>75</v>
+        <v>316</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>11</v>
@@ -5760,17 +5771,17 @@
         <v>318</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P107" s="2"/>
     </row>
@@ -5785,7 +5796,7 @@
         <v>319</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>11</v>
@@ -5798,17 +5809,17 @@
         <v>318</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P108" s="2"/>
     </row>
@@ -5817,63 +5828,76 @@
         <v>57</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>319</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="G109" s="8"/>
+        <v>317</v>
+      </c>
+      <c r="G109" s="2"/>
       <c r="I109" s="2" t="s">
-        <v>89</v>
+        <v>318</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="P109" s="2"/>
+    </row>
+    <row r="110" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A110" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G110" s="8"/>
+      <c r="I110" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="P109" s="2"/>
-    </row>
-    <row r="111" spans="1:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="A111" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="P110" s="2"/>
     </row>
     <row r="112" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="37" t="s">
@@ -5892,87 +5916,66 @@
         <v>79</v>
       </c>
       <c r="F112" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="A113" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F113" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I112" s="3" t="s">
+      <c r="I113" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="B113" s="2"/>
-    </row>
-    <row r="114" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A114" s="3"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
-      <c r="R114" s="2"/>
-      <c r="S114" s="2"/>
-      <c r="T114" s="6"/>
-      <c r="U114" s="6"/>
-      <c r="V114" s="6"/>
+    <row r="114" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="B114" s="2"/>
     </row>
     <row r="115" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A115" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="L115" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="N115" s="6"/>
-      <c r="O115" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="P115" s="6"/>
-      <c r="Q115" s="6"/>
-      <c r="R115" s="6"/>
-      <c r="S115" s="6"/>
+      <c r="A115" s="3"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
       <c r="T115" s="6"/>
       <c r="U115" s="6"/>
       <c r="V115" s="6"/>
     </row>
     <row r="116" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>302</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>349</v>
+        <v>47</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>11</v>
@@ -5984,21 +5987,20 @@
         <v>45</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="J116" s="2"/>
+        <v>351</v>
+      </c>
       <c r="K116" s="2" t="s">
         <v>343</v>
       </c>
       <c r="L116" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="M116" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="N116" s="6"/>
       <c r="O116" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
@@ -6019,7 +6021,7 @@
         <v>302</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>11</v>
@@ -6034,16 +6036,18 @@
         <v>352</v>
       </c>
       <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
+      <c r="K117" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="L117" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>279</v>
+        <v>346</v>
       </c>
       <c r="N117" s="6"/>
       <c r="O117" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P117" s="6"/>
       <c r="Q117" s="6"/>
@@ -6053,14 +6057,50 @@
       <c r="U117" s="6"/>
       <c r="V117" s="6"/>
     </row>
-    <row r="118" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="H118" s="2"/>
+    <row r="118" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A118" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="N118" s="6"/>
+      <c r="O118" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="6"/>
+      <c r="T118" s="6"/>
+      <c r="U118" s="6"/>
+      <c r="V118" s="6"/>
     </row>
     <row r="119" spans="1:22" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
@@ -6071,8 +6111,17 @@
       <c r="F119" s="2"/>
       <c r="H119" s="2"/>
     </row>
+    <row r="120" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="H120" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A111:A112"/>
+  <autoFilter ref="A112:A113"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TS Jatai Working/Raja Files/Rule Processing Table.xlsx
+++ b/TS Jatai Working/Raja Files/Rule Processing Table.xlsx
@@ -1473,13 +1473,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1653,73 +1659,73 @@
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2003,7 +2009,7 @@
   <dimension ref="A3:V120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="K31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="N35" sqref="N35"/>
